--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_20_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_20_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60242.01604202899</v>
+        <v>11988161.19236375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60242.01604202899</v>
+        <v>11988161.19236375</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>996.9725865120863</v>
+        <v>61992.23551887928</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>996.9725865120863</v>
+        <v>61992.23551887928</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112886355.743767</v>
+        <v>46036471.27600837</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9692.948882886098</v>
+        <v>1091928.050422047</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18225.40297397578</v>
+        <v>2003869.570293936</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26757.85706506544</v>
+        <v>2915811.090165827</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35290.3111561551</v>
+        <v>3827752.610037718</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43822.76524724477</v>
+        <v>4739694.129909609</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52355.21933833443</v>
+        <v>5651635.649781498</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>60887.67342942411</v>
+        <v>6563577.169653384</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69420.12752051376</v>
+        <v>7475518.689525271</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>77951.7536862008</v>
+        <v>8387106.155654843</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>86484.17177107972</v>
+        <v>9298851.213703606</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95016.58985595863</v>
+        <v>10210596.27175238</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>103549.0079408375</v>
+        <v>11122341.32980115</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>112081.4260257165</v>
+        <v>12034086.38784993</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>120613.8441105954</v>
+        <v>12945831.4458987</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>129146.2621954743</v>
+        <v>13857576.50394748</v>
       </c>
     </row>
   </sheetData>
